--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>AÑO_MES</t>
   </si>
   <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>VEHICULOS</t>
   </si>
   <si>
     <t>202001</t>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>202108</t>
-  </si>
-  <si>
-    <t>VEHICULOS</t>
   </si>
 </sst>
 </file>
@@ -446,243 +440,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>248546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
-        <v>248546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>232209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>232209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>197980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>197980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>143191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>143191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>171215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>171215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>212227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>212227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>209202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>209202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>213511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>213511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>219852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>219852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>226641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>226641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>222866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>222866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>236303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>236303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>236469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>236469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1">
+        <v>210109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>210109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>241040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1">
-        <v>241040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>221312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>221312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>210541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>210541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1">
+        <v>216614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1">
-        <v>216614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1">
+        <v>236267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
-        <v>236267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="1">
         <v>237357</v>
       </c>
     </row>

--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -14,72 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>AÑO_MES</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002 </t>
+  </si>
+  <si>
+    <t>202003</t>
+  </si>
+  <si>
+    <t>202004</t>
+  </si>
+  <si>
+    <t>202005</t>
+  </si>
+  <si>
+    <t>202006</t>
+  </si>
+  <si>
+    <t>202007</t>
+  </si>
+  <si>
+    <t>202008</t>
+  </si>
+  <si>
+    <t>202009</t>
+  </si>
+  <si>
+    <t>202010</t>
+  </si>
+  <si>
+    <t>202011</t>
+  </si>
+  <si>
+    <t>202012</t>
+  </si>
+  <si>
     <t>VEHICULOS</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002 </t>
-  </si>
-  <si>
-    <t>202003</t>
-  </si>
-  <si>
-    <t>202004</t>
-  </si>
-  <si>
-    <t>202005</t>
-  </si>
-  <si>
-    <t>202006</t>
-  </si>
-  <si>
-    <t>202007</t>
-  </si>
-  <si>
-    <t>202008</t>
-  </si>
-  <si>
-    <t>202009</t>
-  </si>
-  <si>
-    <t>202010</t>
-  </si>
-  <si>
-    <t>202011</t>
-  </si>
-  <si>
-    <t>202012</t>
-  </si>
-  <si>
-    <t>202101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202102 </t>
-  </si>
-  <si>
-    <t>202103</t>
-  </si>
-  <si>
-    <t>202104</t>
-  </si>
-  <si>
-    <t>202105</t>
-  </si>
-  <si>
-    <t>202106</t>
-  </si>
-  <si>
-    <t>202107</t>
-  </si>
-  <si>
-    <t>202108</t>
   </si>
 </sst>
 </file>
@@ -440,181 +422,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
         <v>248546</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
         <v>232209</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
         <v>197980</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
         <v>143191</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
         <v>171215</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <v>212227</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
         <v>209202</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
         <v>213511</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
         <v>219852</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
         <v>226641</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
         <v>222866</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
         <v>236303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>236469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>210109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>241040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>221312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>210541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>216614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>236267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>237357</v>
       </c>
     </row>
   </sheetData>

--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -14,51 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
-    <t>AÑO_MES</t>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
   </si>
   <si>
     <t>TIPO</t>
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002 </t>
-  </si>
-  <si>
-    <t>202003</t>
-  </si>
-  <si>
-    <t>202004</t>
-  </si>
-  <si>
-    <t>202005</t>
-  </si>
-  <si>
-    <t>202006</t>
-  </si>
-  <si>
-    <t>202007</t>
-  </si>
-  <si>
-    <t>202008</t>
-  </si>
-  <si>
-    <t>202009</t>
-  </si>
-  <si>
-    <t>202010</t>
-  </si>
-  <si>
-    <t>202011</t>
-  </si>
-  <si>
-    <t>202012</t>
   </si>
   <si>
     <t>VEHICULOS</t>
@@ -422,16 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,136 +408,175 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
         <v>248546</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>232209</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>197980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>143191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>197980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>171215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>143191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>212227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>171215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>209202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>212227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>213511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>209202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>219852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>213511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>226641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>219852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>222866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>226641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>222866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <v>236303</v>
       </c>
     </row>

--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>248546</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>232209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>197980</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>143191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>171215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>212227</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>209202</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>213511</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>219852</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>226641</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>222866</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>236303</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>AÑO</t>
   </si>
@@ -28,7 +28,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>VEHICULOS</t>
+    <t>INTERVALO</t>
+  </si>
+  <si>
+    <t>DICIEMBRE_ENERO</t>
+  </si>
+  <si>
+    <t>Vehículos</t>
+  </si>
+  <si>
+    <t>-10 %</t>
   </si>
 </sst>
 </file>
@@ -389,16 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,8 +420,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -420,13 +435,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
+        <v>248546</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -434,13 +455,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
+        <v>232209</v>
+      </c>
+      <c r="E3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -448,13 +475,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>197980</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -462,13 +495,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
+        <v>143191</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -476,13 +515,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
+        <v>171215</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -490,13 +535,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>212227</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -504,13 +555,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>209202</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -518,13 +575,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>213511</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -532,13 +595,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
+        <v>219852</v>
+      </c>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -546,13 +615,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
+        <v>226641</v>
+      </c>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -560,13 +635,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
+        <v>222866</v>
+      </c>
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -574,10 +655,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
+        <v>236303</v>
+      </c>
+      <c r="E13" s="1">
         <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/vehiculos.xlsx
+++ b/vehiculos.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INTERVALO</t>
-  </si>
-  <si>
-    <t>DICIEMBRE_ENERO</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Diciembre Vs Enero</t>
   </si>
   <si>
     <t>Vehículos</t>
